--- a/IRCS3_local/IRCS4_build/input_excel/input trad sha.xlsx
+++ b/IRCS3_local/IRCS4_build/input_excel/input trad sha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\run control 4\input_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\IRCS3_local\IRCS4_build\input_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9E5075-7C31-4504-A66B-D4B8300F2FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495878C7-FDB9-4E6C-9F09-FFE550C0CD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3E507947-667D-48FC-8161-25FD0280FDA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{3E507947-667D-48FC-8161-25FD0280FDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Filter UVSG" sheetId="5" r:id="rId5"/>
     <sheet name="Code" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>D:\Python\run control 4\Input\CF File\AZTRAD\Sharia</t>
+  </si>
+  <si>
+    <t>C_sar</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -457,6 +460,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86935E8-9509-4E4E-B853-139B75EE5E09}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1121,25 +1125,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DFDF9-BC78-4956-BABA-B2D1AE47F4C2}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
@@ -1147,13 +1153,16 @@
       <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -1161,13 +1170,16 @@
       <c r="D2" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -1175,13 +1187,16 @@
       <c r="D3" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -1189,13 +1204,16 @@
       <c r="D4" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1203,13 +1221,16 @@
       <c r="D5" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -1217,285 +1238,420 @@
       <c r="D6" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>63</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
       </c>
       <c r="C26" s="3">
         <v>2025</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="str">
+        <f ca="1">B11&amp;"_ori"</f>
+        <v>Data_Extraction_run11TRAD_azcp_Con_ori</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
+        <f t="shared" ref="A28:A29" ca="1" si="0">B12&amp;"_ori"</f>
+        <v>Data_Extraction_run21TRAD_Con_ori</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Data_Extraction_run31TRAD_Con_ori</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
+        <f ca="1">B14&amp;"_ori"</f>
+        <v>_ori</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1508,25 +1664,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8071C82-16E8-4132-9192-2C8D7113D0E0}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
@@ -1534,13 +1692,16 @@
       <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>64</v>
@@ -1548,13 +1709,16 @@
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -1562,167 +1726,199 @@
       <c r="D3" s="3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1734,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE40447-EFD9-4533-9619-0FD56D9BC4CA}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,6 +2189,30 @@
       </c>
       <c r="C26" s="3"/>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="str">
+        <f>B12&amp;"_ori"</f>
+        <v>Data_Extraction_run11TRAD_Sha_ori</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="str">
+        <f>B13&amp;"_ori"</f>
+        <v>Data_Extraction_run21TRAD_Sha_ori</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="str">
+        <f>B14&amp;"_ori"</f>
+        <v>Data_Extraction_run31TRAD_Sha_ori</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="str">
+        <f>B15&amp;"_ori"</f>
+        <v>Data_Extraction_run41TRAD_Sha_ori</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
